--- a/tests/files/test_io5.xlsx
+++ b/tests/files/test_io5.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,32 @@
         <v>1.1</v>
       </c>
       <c r="B3" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2.2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="B4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>3.3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23.3</v>
       </c>
     </row>
   </sheetData>
